--- a/dist/Exel.xlsx
+++ b/dist/Exel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1CF8EB-DC7E-4551-9D05-8CF335290FBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20478F7F-AFC9-4ABA-A34F-349A62B78F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Users</t>
   </si>
@@ -44,13 +44,79 @@
     <t>Test 1</t>
   </si>
   <si>
-    <t>Test one</t>
-  </si>
-  <si>
     <t>group 1</t>
   </si>
   <si>
     <t>test 11</t>
+  </si>
+  <si>
+    <t>group 2</t>
+  </si>
+  <si>
+    <t>group 3</t>
+  </si>
+  <si>
+    <t>group 4</t>
+  </si>
+  <si>
+    <t>group 5</t>
+  </si>
+  <si>
+    <t>test 12</t>
+  </si>
+  <si>
+    <t>test 13</t>
+  </si>
+  <si>
+    <t>test 14</t>
+  </si>
+  <si>
+    <t>test 15</t>
+  </si>
+  <si>
+    <t>group 1, group 2</t>
+  </si>
+  <si>
+    <t>group 1, group 2, group 3, group 4, group 5</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Test 5</t>
+  </si>
+  <si>
+    <t>Test 6</t>
+  </si>
+  <si>
+    <t>Test 7</t>
+  </si>
+  <si>
+    <t>Test 8</t>
+  </si>
+  <si>
+    <t>Test 9</t>
+  </si>
+  <si>
+    <t>Test 10</t>
+  </si>
+  <si>
+    <t>Test modul</t>
+  </si>
+  <si>
+    <t>group 1, group 2, group 3</t>
+  </si>
+  <si>
+    <t>group 1, group 2, group 3, group 4</t>
+  </si>
+  <si>
+    <t>group 1, group 2, group 4</t>
   </si>
 </sst>
 </file>
@@ -389,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +466,7 @@
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -422,38 +488,140 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -464,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10430CDB-A955-4EC4-B209-47732ACB3939}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,27 +652,43 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>

--- a/dist/Exel.xlsx
+++ b/dist/Exel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20478F7F-AFC9-4ABA-A34F-349A62B78F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92326C05-2AF7-4F6E-B1AD-5CD215D5B0F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -74,12 +74,6 @@
     <t>test 15</t>
   </si>
   <si>
-    <t>group 1, group 2</t>
-  </si>
-  <si>
-    <t>group 1, group 2, group 3, group 4, group 5</t>
-  </si>
-  <si>
     <t>Test 2</t>
   </si>
   <si>
@@ -110,13 +104,19 @@
     <t>Test modul</t>
   </si>
   <si>
-    <t>group 1, group 2, group 3</t>
-  </si>
-  <si>
-    <t>group 1, group 2, group 3, group 4</t>
-  </si>
-  <si>
-    <t>group 1, group 2, group 4</t>
+    <t>group 1,group 2,group 3,group 4,group 5</t>
+  </si>
+  <si>
+    <t>group 1,group 2,group 4</t>
+  </si>
+  <si>
+    <t>group 1,group 2</t>
+  </si>
+  <si>
+    <t>group 1,group 2,group 3</t>
+  </si>
+  <si>
+    <t>group 1,group 2,group 3,group 4</t>
   </si>
 </sst>
 </file>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,63 +488,63 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -555,24 +555,24 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -583,44 +583,44 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -632,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10430CDB-A955-4EC4-B209-47732ACB3939}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
